--- a/biology/Biologie cellulaire et moléculaire/Récepteurs_ASIC/Récepteurs_ASIC.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Récepteurs_ASIC/Récepteurs_ASIC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteurs_ASIC</t>
+          <t>Récepteurs_ASIC</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le rôle fonctionnel des récepteurs ASIC (Acid-sensing ion channel) dans le système nerveux périphérique est lié à la nociception, la perception du goût amer et la modulation de la transmission synaptique[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le rôle fonctionnel des récepteurs ASIC (Acid-sensing ion channel) dans le système nerveux périphérique est lié à la nociception, la perception du goût amer et la modulation de la transmission synaptique.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteurs_ASIC</t>
+          <t>Récepteurs_ASIC</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ils sont présents sur la plupart des neurones[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils sont présents sur la plupart des neurones.
 À ce jour six protéines de la famille ASIC ont été identifiées qui proviennent de l'expression de  quatre gènes: ASIC1, ASIC2, ASIC3 et ASIC4. ASIC1a, 1b et 2a, 2b sont des variants d'épissage. 
-La structure cristalline de ASIC1a de poulet a été résolue en 2007[3].
+La structure cristalline de ASIC1a de poulet a été résolue en 2007.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteurs_ASIC</t>
+          <t>Récepteurs_ASIC</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,11 +558,13 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les récepteurs ASIC sont des canaux cationiques activés par les protons extracellulaires, et donc, sont des senseurs du PH ambiant, activés en cas d'acidité du milieu[4]. 
-Une toxine de serpent (MitTx) peut activer directement les canaux ASIC et causer de la douleur chez la souris[5].
-Ce récepteur semble jouer un rôle délétère dans la viabilité de la cellule musculaire cardiaque après une ischémie transitoire[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les récepteurs ASIC sont des canaux cationiques activés par les protons extracellulaires, et donc, sont des senseurs du PH ambiant, activés en cas d'acidité du milieu. 
+Une toxine de serpent (MitTx) peut activer directement les canaux ASIC et causer de la douleur chez la souris.
+Ce récepteur semble jouer un rôle délétère dans la viabilité de la cellule musculaire cardiaque après une ischémie transitoire.
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteurs_ASIC</t>
+          <t>Récepteurs_ASIC</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,10 +593,12 @@
           <t>Intérêt</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les récepteurs ASIC sont des cibles potentielles de médicaments pour le traitement d'une grande variété de conditions liées à la fois au système nerveux central et au système nerveux périphérique avec un intérêt particulier dans le champ de la douleur et de l'anxiété[7].
-L'amiloride est un inhibiteur de ces récepteurs[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les récepteurs ASIC sont des cibles potentielles de médicaments pour le traitement d'une grande variété de conditions liées à la fois au système nerveux central et au système nerveux périphérique avec un intérêt particulier dans le champ de la douleur et de l'anxiété.
+L'amiloride est un inhibiteur de ces récepteurs.
 </t>
         </is>
       </c>
